--- a/soberano/test_cases/costcenter_modify_test_cases.xlsx
+++ b/soberano/test_cases/costcenter_modify_test_cases.xlsx
@@ -31,10 +31,10 @@
     <t xml:space="preserve">Name</t>
   </si>
   <si>
-    <t xml:space="preserve">Input cost center</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Output cost center</t>
+    <t xml:space="preserve">Input warehouse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Output warehouse</t>
   </si>
   <si>
     <t xml:space="preserve">User2 is allowed to modify cost center</t>
@@ -300,7 +300,7 @@
   <dimension ref="A1:AMJ27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="15:15"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
